--- a/data/trans_dic/CONS_DOL-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DOL-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -568,62 +569,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>18,09%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16,88%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>23,96%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>18,46%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,08%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>22,03%</t>
+          <t>11,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>35,86%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>21,13%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>27,15%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>31,89%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>11,26%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>26,07%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>18,93%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>25,57%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>24,88%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>9,17%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,8; 21,29</t>
+          <t>5,75; 9,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,26; 28,49</t>
+          <t>14,37; 23,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,04; 22,16</t>
+          <t>13,71; 20,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,52; 8,85</t>
+          <t>20,3; 28,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,38; 26,14</t>
+          <t>9,59; 14,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,29; 31,74</t>
+          <t>31,34; 40,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,78; 35,71</t>
+          <t>17,68; 25,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,32; 13,52</t>
+          <t>22,87; 31,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,24; 22,29</t>
+          <t>8,29; 11,31</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,94; 28,62</t>
+          <t>22,76; 29,37</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>22,42; 27,63</t>
+          <t>16,56; 21,75</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,96; 10,78</t>
+          <t>22,83; 28,72</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>20,1%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15,88%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>24,3%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>20,24%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>8,61%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>31,71%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>23,17%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>34,66%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>31,75%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>12,14%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>25,27%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>19,83%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>30,24%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>25,6%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>10,67%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,28; 21,08</t>
+          <t>5,91; 11,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,39; 29,69</t>
+          <t>15,72; 25,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,7; 24,58</t>
+          <t>12,46; 20,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,11; 11,44</t>
+          <t>19,37; 29,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,88; 28,26</t>
+          <t>9,24; 14,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,73; 39,72</t>
+          <t>27,49; 36,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>27,83; 35,65</t>
+          <t>19,25; 27,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,85; 14,92</t>
+          <t>30,23; 39,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,89; 24,16</t>
+          <t>8,17; 11,91</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>26,94; 34,22</t>
+          <t>21,92; 28,57</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>23,08; 28,68</t>
+          <t>17,1; 23,17</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,97; 12,5</t>
+          <t>26,66; 33,61</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>14,74%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>22,92%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>37,6%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>24,84%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>11,63%</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>39,71%</t>
+          <t>25,7%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>48,49%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>37,89%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>50,29%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>47,34%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>23,11%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>28,78%</t>
+          <t>15,75%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>20,49%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>27,62%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>42,36%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>30,88%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>14,81%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,24; 28,62</t>
+          <t>9,68; 14,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>29,41; 45,28</t>
+          <t>3,88; 32,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,21; 30,14</t>
+          <t>18,38; 28,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,66; 13,63</t>
+          <t>29,99; 45,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,69; 48,02</t>
+          <t>20,89; 30,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>39,95; 61,07</t>
+          <t>39,87; 57,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>41,19; 53,77</t>
+          <t>30,38; 46,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,09; 27,97</t>
+          <t>39,96; 60,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,91; 32,6</t>
+          <t>13,6; 17,89</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>35,8; 48,76</t>
+          <t>6,11; 37,36</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>23,01; 35,16</t>
+          <t>23,82; 32,38</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,16; 16,63</t>
+          <t>36,29; 48,95</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>28,56%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>24,83%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>28,95%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>28,82%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>15,61%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,03%</t>
+          <t>19,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>48,15%</t>
+          <t>58,97%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>45,77%</t>
+          <t>28,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>48,22%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>28,38%</t>
+          <t>17,65%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>38,43%</t>
+          <t>45,07%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>36,77%</t>
+          <t>26,92%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>38,46%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,27; 28,53</t>
+          <t>13,66; 18,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,84; 34,95</t>
+          <t>24,51; 32,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,29; 32,02</t>
+          <t>21,19; 29,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,39; 18,32</t>
+          <t>23,42; 35,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,4; 36,05</t>
+          <t>17,16; 22,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,66; 54,78</t>
+          <t>38,23; 83,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,58; 62,3</t>
+          <t>25,01; 32,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,12; 21,61</t>
+          <t>42,61; 55,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,82; 31,01</t>
+          <t>15,76; 19,61</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>34,02; 42,82</t>
+          <t>32,62; 68,64</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>32,34; 49,77</t>
+          <t>24,28; 29,89</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,8; 19,17</t>
+          <t>33,72; 42,87</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>21,8%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>24,94%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>19,97%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>35,65%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>27,06%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>13,47%</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>35,69%</t>
+          <t>27,89%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>43,63%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>34,19%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>51,51%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>48,22%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>26,0%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>28,75%</t>
+          <t>22,97%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>37,41%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>27,17%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>45,75%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>40,31%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>21,23%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,68; 27,15</t>
+          <t>10,97; 18,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>24,62; 48,89</t>
+          <t>19,28; 32,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,07; 31,5</t>
+          <t>15,24; 25,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,64; 16,89</t>
+          <t>25,6; 47,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,61; 41,25</t>
+          <t>24,2; 31,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>43,29; 60,22</t>
+          <t>25,11; 53,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>44,58; 51,74</t>
+          <t>28,17; 40,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,12; 29,41</t>
+          <t>43,27; 59,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24,85; 32,58</t>
+          <t>20,33; 25,88</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>38,8; 53,05</t>
+          <t>26,09; 43,94</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>37,67; 43,24</t>
+          <t>23,43; 31,87</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,99; 23,7</t>
+          <t>38,67; 52,54</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>26,47%</t>
+          <t>19,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>41,23%</t>
+          <t>36,44%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>37,72%</t>
+          <t>23,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>41,72%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>33,13%</t>
+          <t>31,1%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>31,81%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>34,13%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,43</t>
+          <t>2,22; 7,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,65; 30,89</t>
+          <t>7,25; 27,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,72; 19,45</t>
+          <t>0,0; 27,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,25; 6,1</t>
+          <t>12,77; 32,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,97; 52,67</t>
+          <t>15,79; 22,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>32,19; 50,12</t>
+          <t>32,67; 40,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>34,96; 40,7</t>
+          <t>6,93; 51,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,53; 19,55</t>
+          <t>32,73; 51,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,4; 35,25</t>
+          <t>12,66; 17,69</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>26,48; 40,65</t>
+          <t>27,57; 35,19</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>28,96; 34,59</t>
+          <t>6,26; 33,73</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,14; 14,73</t>
+          <t>27,16; 41,72</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>27,81%</t>
+          <t>20,82%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>27,91%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>29,01%</t>
+          <t>18,75%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>39,27%</t>
+          <t>44,22%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>41,11%</t>
+          <t>27,08%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>17,89%</t>
+          <t>39,31%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>15,2%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>33,83%</t>
+          <t>32,86%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>32,94%</t>
+          <t>23,51%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>33,9%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>19,38; 22,99</t>
+          <t>10,22; 12,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>25,33; 30,52</t>
+          <t>14,38; 24,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>21,8; 25,44</t>
+          <t>18,14; 21,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,93; 11,9</t>
+          <t>25,22; 30,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,8; 31,15</t>
+          <t>17,51; 19,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>36,45; 41,89</t>
+          <t>37,07; 60,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>38,84; 47,83</t>
+          <t>24,91; 29,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,85; 19,05</t>
+          <t>36,84; 42,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23,49; 26,28</t>
+          <t>14,43; 16,13</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>31,92; 35,73</t>
+          <t>27,34; 42,33</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>31,37; 36,78</t>
+          <t>22,11; 24,84</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>13,84; 15,24</t>
+          <t>32,04; 35,83</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos para el dolor</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11148</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>66315</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>49875</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>49148</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>16788</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>107192</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>58455</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>57117</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>27936</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>173506</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>108330</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>106265</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8382; 14439</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>52690; 84749</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>40505; 61791</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>41638; 57552</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>13698; 20781</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>93683; 121554</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>48909; 70323</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>48113; 66486</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>23926; 32646</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>151465; 195451</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>94755; 124441</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>94867; 119349</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6714</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>65125</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>31079</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>30364</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>12428</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>82473</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>53742</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>58254</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>19142</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>147598</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>84821</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>88618</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4799; 9293</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>50955; 82535</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>24398; 40306</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>24208; 37156</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>10080; 15606</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>71501; 96031</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>44657; 64499</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>50815; 66210</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>15548; 22667</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>128048; 166878</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>73130; 99127</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>78129; 98489</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>19526</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>70064</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>41462</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>35844</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>16230</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>47313</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>31373</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>28866</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>35756</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>117377</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>72836</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>64710</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15860; 23518</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>18440; 154638</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>33249; 51038</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>28592; 43362</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>13192; 19483</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>38903; 55759</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>25153; 38811</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>22938; 34872</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>30876; 40605</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>35026; 214070</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>62801; 85368</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>55436; 74773</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>26963</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>153145</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>76594</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>47234</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>34330</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>375409</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>91632</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>76620</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>61293</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>528554</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>168226</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>123854</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>23236; 31621</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>131398; 175863</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>65362; 90743</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>38208; 57335</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>30400; 39336</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>243418; 532941</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>79140; 104286</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>67716; 87602</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>54720; 68116</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>382571; 804994</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>151680; 186785</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>108611; 138077</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>11115</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>52670</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>30128</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>19145</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>37079</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>184958</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>53012</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>48477</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>48194</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>237628</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>83140</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>67622</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>8432; 14255</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>40724; 68580</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>23000; 38461</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>13750; 25753</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>32172; 41900</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>106455; 226819</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>43677; 62923</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>40718; 56441</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>42657; 54295</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>165729; 279064</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>71702; 97518</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>57153; 77657</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1914</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>25696</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>7745</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>22552</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>178556</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2676</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>25996</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>24466</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>204253</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>3518</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>33741</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1007; 3276</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>12095; 46312</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2609</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>4668; 11852</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>18679; 26363</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>160066; 197007</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>792; 5885</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>20395; 31838</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>20708; 28931</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>181054; 231095</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1302; 7009</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>26854; 41243</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1259</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1265</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1721</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1156</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>77380</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>433015</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>229979</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>189480</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>139408</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>975901</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>290891</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>295331</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>216788</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1408916</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>520870</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>484811</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>69840; 85620</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>299230; 510866</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>206908; 249602</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>171218; 206716</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>130194; 148620</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>818161; 1332726</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>267642; 314225</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>276751; 316148</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>205851; 230068</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1172040; 1814942</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>489797; 550328</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>458224; 512418</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_DOL-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DOL-Clase-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el dolor</t>
+          <t>Consumo de medicamentos para el dolor (tasa de respuesta: 99,68%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1685,7 +1685,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el dolor</t>
+          <t>Consumo de medicamentos para el dolor (tasa de respuesta: 99,68%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_DOL-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DOL-Clase-trans_dic.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,75; 9,9</t>
+          <t>5,29; 8,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,37; 23,11</t>
+          <t>14,22; 22,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,3; 28,05</t>
+          <t>20,19; 28,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,59; 14,54</t>
+          <t>9,09; 13,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,34; 40,67</t>
+          <t>31,49; 40,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -760,17 +760,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,87; 31,6</t>
+          <t>23,39; 31,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,29; 11,31</t>
+          <t>7,66; 10,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,76; 29,37</t>
+          <t>23,16; 29,44</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>22,83; 28,72</t>
+          <t>22,64; 28,1</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,91; 11,45</t>
+          <t>5,67; 10,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,72; 25,47</t>
+          <t>16,02; 24,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -880,17 +880,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,37; 29,74</t>
+          <t>19,38; 29,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,24; 14,3</t>
+          <t>8,83; 13,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,49; 36,92</t>
+          <t>27,39; 37,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -900,17 +900,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,23; 39,39</t>
+          <t>29,69; 39,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,17; 11,91</t>
+          <t>7,99; 11,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,92; 28,57</t>
+          <t>21,88; 28,35</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,66; 33,61</t>
+          <t>26,66; 33,79</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,7%</t>
+          <t>26,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>16,22%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,68; 14,35</t>
+          <t>10,12; 14,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,88; 32,53</t>
+          <t>4,1; 32,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29,99; 45,48</t>
+          <t>30,13; 46,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,89; 30,85</t>
+          <t>21,45; 31,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>39,87; 57,15</t>
+          <t>39,8; 56,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1040,17 +1040,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>39,96; 60,75</t>
+          <t>39,91; 61,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,6; 17,89</t>
+          <t>14,21; 18,71</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,11; 37,36</t>
+          <t>8,03; 37,35</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>36,29; 48,95</t>
+          <t>36,32; 48,18</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>15,87%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,66; 18,59</t>
+          <t>13,68; 18,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,51; 32,8</t>
+          <t>24,92; 33,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1160,17 +1160,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,42; 35,14</t>
+          <t>24,17; 35,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,16; 22,2</t>
+          <t>17,61; 23,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,23; 83,71</t>
+          <t>38,1; 84,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1180,17 +1180,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>42,61; 55,13</t>
+          <t>42,18; 54,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,76; 19,61</t>
+          <t>16,26; 19,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>32,62; 68,64</t>
+          <t>32,3; 65,89</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>33,72; 42,87</t>
+          <t>33,97; 42,57</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>14,46%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>28,26%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>22,97%</t>
+          <t>23,21%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1285,12 +1285,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,97; 18,55</t>
+          <t>11,2; 18,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,28; 32,47</t>
+          <t>18,52; 31,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1300,17 +1300,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,6; 47,95</t>
+          <t>25,0; 49,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,2; 31,52</t>
+          <t>24,99; 32,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,11; 53,5</t>
+          <t>26,04; 53,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1320,17 +1320,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>43,27; 59,98</t>
+          <t>41,29; 59,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20,33; 25,88</t>
+          <t>20,51; 25,83</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26,09; 43,94</t>
+          <t>25,2; 43,52</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>38,67; 52,54</t>
+          <t>38,51; 52,43</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1425,12 +1425,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,22; 7,24</t>
+          <t>2,85; 8,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,25; 27,77</t>
+          <t>6,41; 27,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1440,17 +1440,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,77; 32,43</t>
+          <t>12,18; 33,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,79; 22,29</t>
+          <t>15,77; 21,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>32,67; 40,21</t>
+          <t>32,27; 40,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1460,17 +1460,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>32,73; 51,1</t>
+          <t>33,02; 51,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,66; 17,69</t>
+          <t>12,14; 16,84</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>27,57; 35,19</t>
+          <t>27,37; 35,02</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>27,16; 41,72</t>
+          <t>27,03; 42,16</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,22; 12,54</t>
+          <t>9,92; 12,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,38; 24,56</t>
+          <t>13,1; 24,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1580,17 +1580,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25,22; 30,45</t>
+          <t>25,44; 30,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,51; 19,99</t>
+          <t>16,99; 19,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>37,07; 60,38</t>
+          <t>37,34; 60,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1600,17 +1600,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>36,84; 42,09</t>
+          <t>36,56; 42,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,43; 16,13</t>
+          <t>14,01; 15,63</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>27,34; 42,33</t>
+          <t>27,73; 43,12</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>32,04; 35,83</t>
+          <t>31,99; 35,75</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11148</t>
+          <t>11107</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16788</t>
+          <t>18709</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27936</t>
+          <t>29816</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8382; 14439</t>
+          <t>8610; 14207</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>52690; 84749</t>
+          <t>52133; 83057</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1958,17 +1958,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>41638; 57552</t>
+          <t>41428; 57600</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13698; 20781</t>
+          <t>15319; 22270</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>93683; 121554</t>
+          <t>94130; 121283</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -1978,17 +1978,17 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>48113; 66486</t>
+          <t>49218; 65800</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23926; 32646</t>
+          <t>25380; 34754</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>151465; 195451</t>
+          <t>154177; 195976</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>94867; 119349</t>
+          <t>94101; 116768</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6714</t>
+          <t>7132</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12428</t>
+          <t>13313</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>19142</t>
+          <t>20445</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -2151,12 +2151,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4799; 9293</t>
+          <t>5124; 9771</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50955; 82535</t>
+          <t>51898; 80244</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -2166,17 +2166,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24208; 37156</t>
+          <t>24212; 36958</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10080; 15606</t>
+          <t>10829; 16394</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>71501; 96031</t>
+          <t>71227; 97280</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -2186,17 +2186,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>50815; 66210</t>
+          <t>49899; 67088</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15548; 22667</t>
+          <t>17018; 24606</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>128048; 166878</t>
+          <t>127823; 165612</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>78129; 98489</t>
+          <t>78126; 99010</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19526</t>
+          <t>18866</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16230</t>
+          <t>16087</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>35756</t>
+          <t>34953</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -2359,12 +2359,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15860; 23518</t>
+          <t>15574; 22561</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18440; 154638</t>
+          <t>19513; 153511</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2374,17 +2374,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>28592; 43362</t>
+          <t>28724; 43907</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>13192; 19483</t>
+          <t>13215; 19415</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>38903; 55759</t>
+          <t>38832; 55553</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -2394,17 +2394,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>22938; 34872</t>
+          <t>22908; 35170</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>30876; 40605</t>
+          <t>30625; 40314</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>35026; 214070</t>
+          <t>45989; 213983</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>55436; 74773</t>
+          <t>55470; 73593</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>26963</t>
+          <t>26941</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>34330</t>
+          <t>36277</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>61293</t>
+          <t>63218</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23236; 31621</t>
+          <t>23213; 31293</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>131398; 175863</t>
+          <t>133600; 178805</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2582,17 +2582,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>38208; 57335</t>
+          <t>39429; 57469</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>30400; 39336</t>
+          <t>32087; 42205</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>243418; 532941</t>
+          <t>242543; 539197</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -2602,17 +2602,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>67716; 87602</t>
+          <t>67033; 86420</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>54720; 68116</t>
+          <t>57234; 69940</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>382571; 804994</t>
+          <t>378802; 772701</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>108611; 138077</t>
+          <t>109399; 137112</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11115</t>
+          <t>10938</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>37079</t>
+          <t>35444</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>48194</t>
+          <t>46381</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -2775,12 +2775,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>8432; 14255</t>
+          <t>8342; 13896</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>40724; 68580</t>
+          <t>39112; 66869</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2790,17 +2790,17 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>13750; 25753</t>
+          <t>13429; 26843</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>32172; 41900</t>
+          <t>31338; 40215</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>106455; 226819</t>
+          <t>110405; 227541</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -2810,17 +2810,17 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>40718; 56441</t>
+          <t>38854; 56311</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>42657; 54295</t>
+          <t>40999; 51623</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>165729; 279064</t>
+          <t>160081; 276413</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>57153; 77657</t>
+          <t>56924; 77505</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1914</t>
+          <t>2892</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>22552</t>
+          <t>22763</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>24466</t>
+          <t>25655</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1007; 3276</t>
+          <t>1583; 4959</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>12095; 46312</t>
+          <t>10688; 45457</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2998,17 +2998,17 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4668; 11852</t>
+          <t>4452; 12276</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>18679; 26363</t>
+          <t>19331; 26632</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>160066; 197007</t>
+          <t>158112; 198923</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -3018,17 +3018,17 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>20395; 31838</t>
+          <t>20577; 32017</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>20708; 28931</t>
+          <t>21631; 30010</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>181054; 231095</t>
+          <t>179763; 229987</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>26854; 41243</t>
+          <t>26722; 41681</t>
         </is>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>77380</t>
+          <t>77875</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>139408</t>
+          <t>142593</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -3163,7 +3163,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>216788</t>
+          <t>220468</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
@@ -3191,12 +3191,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>69840; 85620</t>
+          <t>70101; 85196</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>299230; 510866</t>
+          <t>272456; 508233</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -3206,17 +3206,17 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>171218; 206716</t>
+          <t>172673; 208642</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>130194; 148620</t>
+          <t>133017; 151559</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>818161; 1332726</t>
+          <t>824121; 1331304</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -3226,17 +3226,17 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>276751; 316148</t>
+          <t>274644; 315508</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>205851; 230068</t>
+          <t>208676; 232833</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>1172040; 1814942</t>
+          <t>1188731; 1848579</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>458224; 512418</t>
+          <t>457414; 511247</t>
         </is>
       </c>
     </row>
